--- a/m50,m40,m60 Pnp/Rev 2.2/BOM-speeduino v0.4.3 compatible PCB for m50nv rev2.2.xlsx
+++ b/m50,m40,m60 Pnp/Rev 2.2/BOM-speeduino v0.4.3 compatible PCB for m50nv rev2.2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pasi\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 2.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC322B4E-655E-450E-AEC5-C8F2539CE060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5912CDA-4BCF-4886-AC79-274271F5484D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="1635" windowWidth="21600" windowHeight="12735" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="150" yWindow="1350" windowWidth="28650" windowHeight="14850" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1055,19 +1057,6 @@
     <t>R9,R12,R15,R18,R46,R53</t>
   </si>
   <si>
-    <r>
-      <t>D3,D4,D9,D10,D11,D12,D18,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t>D20</t>
-    </r>
-  </si>
-  <si>
     <t>Gate Drivers</t>
   </si>
   <si>
@@ -1251,6 +1240,19 @@
   </si>
   <si>
     <t>576-SP720APP</t>
+  </si>
+  <si>
+    <r>
+      <t>D2,D3,D4,D5,D6,D7,D9,D10,D11,D12,D18,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>D20</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1644,60 +1646,60 @@
     </xf>
   </cellXfs>
   <cellStyles count="54">
-    <cellStyle name="Avattu hyperlinkki" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Avattu hyperlinkki" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Normaali" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2039,8 +2041,8 @@
   </sheetPr>
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:XFD46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2266,7 +2268,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -2452,7 +2454,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -2514,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
@@ -2910,10 +2912,10 @@
     <row r="16" spans="1:19" ht="26.25" thickBot="1">
       <c r="A16" s="17">
         <f>LEN(B16)-LEN(SUBSTITUTE(B16,",",""))+1</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
@@ -2945,28 +2947,28 @@
       </c>
       <c r="M16" s="6">
         <f>K16*A16</f>
-        <v>0.88</v>
+        <v>1.32</v>
       </c>
       <c r="N16" s="6">
         <f>L16*A16</f>
-        <v>0.88</v>
+        <v>1.32</v>
       </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>8,1N4004-TPMSCT-ND</v>
+        <v>12,1N4004-TPMSCT-ND</v>
       </c>
       <c r="Q16" t="str">
         <f>"Diode - " &amp;A16&amp;"x "&amp;C16</f>
-        <v>Diode - 8x 1N4004</v>
+        <v>Diode - 12x 1N4004</v>
       </c>
       <c r="R16" t="str">
         <f t="shared" si="4"/>
-        <v>833-1N4004-TP|8</v>
+        <v>833-1N4004-TP|12</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" si="5"/>
-        <v>1N4004-TP 8</v>
+        <v>1N4004-TP 12</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16.5" thickBot="1">
@@ -3157,10 +3159,10 @@
         <v>184</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3168,13 +3170,13 @@
         <v>186</v>
       </c>
       <c r="H21" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="I21" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="J21" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
@@ -3705,7 +3707,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>43</v>
@@ -3827,7 +3829,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C34" s="3">
         <v>470</v>
@@ -3887,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>158</v>
@@ -4077,21 +4079,21 @@
         <v>150</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="K38" s="5">
         <v>0.27</v>
@@ -4148,7 +4150,7 @@
         <v>176</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>177</v>
@@ -4526,10 +4528,10 @@
         <v>123</v>
       </c>
       <c r="C46" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>239</v>
@@ -4539,13 +4541,13 @@
         <v>152</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I46" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="K46" s="6">
         <v>2.4</v>
@@ -4585,13 +4587,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>211</v>
@@ -4601,13 +4603,13 @@
         <v>38</v>
       </c>
       <c r="H47" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I47" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="J47" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="K47" s="6">
         <v>1.41</v>
@@ -4729,10 +4731,10 @@
         <v>218</v>
       </c>
       <c r="C51" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="12"/>
@@ -4740,13 +4742,13 @@
         <v>186</v>
       </c>
       <c r="H51" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="I51" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="J51" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="K51" s="6">
         <v>0.33</v>
@@ -4791,7 +4793,7 @@
         <v>220</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="12"/>
@@ -4799,13 +4801,13 @@
         <v>186</v>
       </c>
       <c r="H52" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="J52" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="K52" s="6">
         <v>0.16</v>
@@ -4876,11 +4878,11 @@
       <c r="L54" s="1"/>
       <c r="M54" s="10">
         <f>SUM(M3:M52)</f>
-        <v>111.57</v>
+        <v>112.01000000000002</v>
       </c>
       <c r="N54" s="10">
         <f>SUM(N3:N52)</f>
-        <v>129.59100000000001</v>
+        <v>130.03100000000001</v>
       </c>
       <c r="O54" s="9" t="s">
         <v>65</v>

--- a/m50,m40,m60 Pnp/Rev 2.2/BOM-speeduino v0.4.3 compatible PCB for m50nv rev2.2.xlsx
+++ b/m50,m40,m60 Pnp/Rev 2.2/BOM-speeduino v0.4.3 compatible PCB for m50nv rev2.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5912CDA-4BCF-4886-AC79-274271F5484D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D37AA32-7BD0-40D0-85DE-53FC955D18FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="150" yWindow="1350" windowWidth="28650" windowHeight="14850" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="735" windowWidth="28650" windowHeight="14850" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -1042,9 +1042,6 @@
     <t>Q1,Q2,Q3,Q4,Q6,Q10</t>
   </si>
   <si>
-    <t>IC1,IC2,IC3</t>
-  </si>
-  <si>
     <t>R11,R14,R17,R20,R35,R36,R37,R38,R43,R48,R49,R52,R55,R56,R70,R75</t>
   </si>
   <si>
@@ -1159,9 +1156,6 @@
       </rPr>
       <t>C27</t>
     </r>
-  </si>
-  <si>
-    <t>C1,C3,C5,C7,C9,C13,C15,C29,C22,C21</t>
   </si>
   <si>
     <r>
@@ -1253,6 +1247,12 @@
       </rPr>
       <t>D20</t>
     </r>
+  </si>
+  <si>
+    <t>IC1,IC2,IC5</t>
+  </si>
+  <si>
+    <t>C1,C3,C5,C7,C9,C13,C15,C21,C22,C29</t>
   </si>
 </sst>
 </file>
@@ -2041,8 +2041,8 @@
   </sheetPr>
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2268,7 +2268,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -2454,7 +2454,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>16</v>
@@ -2516,7 +2516,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
@@ -2855,7 +2855,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
@@ -2915,7 +2915,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>28</v>
@@ -3159,10 +3159,10 @@
         <v>184</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3170,13 +3170,13 @@
         <v>186</v>
       </c>
       <c r="H21" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="I21" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="J21" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
@@ -3707,7 +3707,7 @@
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>43</v>
@@ -3767,7 +3767,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C33" s="12">
         <v>680</v>
@@ -3829,7 +3829,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C34" s="3">
         <v>470</v>
@@ -3889,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>158</v>
@@ -4013,7 +4013,7 @@
         <v>16</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>54</v>
@@ -4073,27 +4073,27 @@
         <v>6</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C38" s="3">
         <v>150</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="K38" s="5">
         <v>0.27</v>
@@ -4150,7 +4150,7 @@
         <v>176</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>177</v>
@@ -4463,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>94</v>
@@ -4528,10 +4528,10 @@
         <v>123</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>239</v>
@@ -4541,13 +4541,13 @@
         <v>152</v>
       </c>
       <c r="H46" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="I46" s="12" t="s">
-        <v>294</v>
-      </c>
       <c r="J46" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K46" s="6">
         <v>2.4</v>
@@ -4587,13 +4587,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>211</v>
@@ -4603,13 +4603,13 @@
         <v>38</v>
       </c>
       <c r="H47" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I47" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="J47" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="K47" s="6">
         <v>1.41</v>
@@ -4731,10 +4731,10 @@
         <v>218</v>
       </c>
       <c r="C51" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="12"/>
@@ -4742,13 +4742,13 @@
         <v>186</v>
       </c>
       <c r="H51" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="I51" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="J51" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="K51" s="6">
         <v>0.33</v>
@@ -4793,7 +4793,7 @@
         <v>220</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="12"/>
@@ -4801,13 +4801,13 @@
         <v>186</v>
       </c>
       <c r="H52" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="J52" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="K52" s="6">
         <v>0.16</v>

--- a/m50,m40,m60 Pnp/Rev 2.2/BOM-speeduino v0.4.3 compatible PCB for m50nv rev2.2.xlsx
+++ b/m50,m40,m60 Pnp/Rev 2.2/BOM-speeduino v0.4.3 compatible PCB for m50nv rev2.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Documents\GitHub\Speeduino-M5x-PCBs\m50,m40,m60 Pnp\Rev 2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D37AA32-7BD0-40D0-85DE-53FC955D18FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BF0753-19A3-4338-9A38-C45EC09770A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="735" windowWidth="28650" windowHeight="14850" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="30" windowWidth="27975" windowHeight="15570" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component List" sheetId="1" r:id="rId1"/>
@@ -1249,10 +1249,10 @@
     </r>
   </si>
   <si>
-    <t>IC1,IC2,IC5</t>
-  </si>
-  <si>
     <t>C1,C3,C5,C7,C9,C13,C15,C21,C22,C29</t>
+  </si>
+  <si>
+    <t>IC2,IC3,IC5</t>
   </si>
 </sst>
 </file>
@@ -2041,8 +2041,8 @@
   </sheetPr>
   <dimension ref="A1:S61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2268,7 +2268,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>13</v>
@@ -4463,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C45" s="12" t="s">
         <v>94</v>
